--- a/DataLiteracyLabs.xlsx
+++ b/DataLiteracyLabs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Langer\Dropbox\Schedulicity\TDWI\DataLiteracy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D1B20D-C1F2-4E88-A02A-3FF526F9E47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D75E18-FE02-4CCF-9C73-11045A85B68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="706" xr2:uid="{686FE2A4-8035-4207-ABBB-330630FAEEF1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lab 2 Data" sheetId="11" r:id="rId1"/>
-    <sheet name="Customer Segment Data" sheetId="15" r:id="rId2"/>
+    <sheet name="Lab 1 Data" sheetId="16" r:id="rId1"/>
+    <sheet name="Lab 2 Data" sheetId="11" r:id="rId2"/>
+    <sheet name="Customer Segment Data" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Week of Year</t>
   </si>
@@ -44,14 +45,140 @@
   </si>
   <si>
     <t>Financial Services</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>2019 Sales</t>
+  </si>
+  <si>
+    <t>Trans Amount</t>
+  </si>
+  <si>
+    <t>Bins 1</t>
+  </si>
+  <si>
+    <t>Bins 2</t>
+  </si>
+  <si>
+    <t>1/2018</t>
+  </si>
+  <si>
+    <t>Trinkets</t>
+  </si>
+  <si>
+    <t>2/2018</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>3/2018</t>
+  </si>
+  <si>
+    <t>4/2018</t>
+  </si>
+  <si>
+    <t>5/2018</t>
+  </si>
+  <si>
+    <t>6/2018</t>
+  </si>
+  <si>
+    <t>7/2018</t>
+  </si>
+  <si>
+    <t>8/2018</t>
+  </si>
+  <si>
+    <t>9/2018</t>
+  </si>
+  <si>
+    <t>10/2018</t>
+  </si>
+  <si>
+    <t>11/2018</t>
+  </si>
+  <si>
+    <t>12/2018</t>
+  </si>
+  <si>
+    <t>1/2019</t>
+  </si>
+  <si>
+    <t>2/2019</t>
+  </si>
+  <si>
+    <t>3/2019</t>
+  </si>
+  <si>
+    <t>4/2019</t>
+  </si>
+  <si>
+    <t>5/2019</t>
+  </si>
+  <si>
+    <t>Bin 1 Output</t>
+  </si>
+  <si>
+    <t>Bin 2 Output</t>
+  </si>
+  <si>
+    <t>6/2019</t>
+  </si>
+  <si>
+    <t>7/2019</t>
+  </si>
+  <si>
+    <t>8/2019</t>
+  </si>
+  <si>
+    <t>9/2019</t>
+  </si>
+  <si>
+    <t>10/2019</t>
+  </si>
+  <si>
+    <t>11/2019</t>
+  </si>
+  <si>
+    <t>12/2019</t>
+  </si>
+  <si>
+    <t>Average =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="m/d;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,9 +215,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,11 +536,1674 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05197241-F874-4343-A2B4-433CFE7DD338}">
+  <dimension ref="A1:M1033"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1733</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5">
+        <v>16270.5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>93.75</v>
+      </c>
+      <c r="K2" s="6">
+        <v>50</v>
+      </c>
+      <c r="M2" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1681.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10751</v>
+      </c>
+      <c r="I3" s="5">
+        <v>90</v>
+      </c>
+      <c r="K3" s="6">
+        <v>100</v>
+      </c>
+      <c r="M3" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1987</v>
+      </c>
+      <c r="I4" s="5">
+        <v>126</v>
+      </c>
+      <c r="K4" s="6">
+        <v>150</v>
+      </c>
+      <c r="M4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1495.5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>30</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="M5" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2001.5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="M6" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1918</v>
+      </c>
+      <c r="I7" s="5">
+        <v>70.5</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="M7" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1791</v>
+      </c>
+      <c r="I8" s="5">
+        <v>102</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="M8" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2305.5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="M9" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1762</v>
+      </c>
+      <c r="I10" s="5">
+        <v>50</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="M10" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1697</v>
+      </c>
+      <c r="I11" s="5">
+        <v>90</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="M11" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2564.75</v>
+      </c>
+      <c r="I12" s="5">
+        <v>40</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="M12" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3140.25</v>
+      </c>
+      <c r="I13" s="5">
+        <v>50</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="M13" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2381</v>
+      </c>
+      <c r="I14" s="5">
+        <v>67</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="M14" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1858</v>
+      </c>
+      <c r="I15" s="5">
+        <v>103.5</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="M15" s="6">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2117</v>
+      </c>
+      <c r="I16" s="5">
+        <v>25</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="M16" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2068.5</v>
+      </c>
+      <c r="I17" s="5">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2421</v>
+      </c>
+      <c r="I18" s="5">
+        <v>50</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1841</v>
+      </c>
+      <c r="I19" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2052.75</v>
+      </c>
+      <c r="I20" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2165.5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1931</v>
+      </c>
+      <c r="I22" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2164</v>
+      </c>
+      <c r="I23" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2773</v>
+      </c>
+      <c r="I24" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5">
+        <v>3245.5</v>
+      </c>
+      <c r="I25" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I27" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I31" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I32" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="5">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="5">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="5">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" s="5"/>
+      <c r="B757"/>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" s="5"/>
+      <c r="B758"/>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" s="5"/>
+      <c r="B759"/>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" s="5"/>
+      <c r="B760"/>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" s="5"/>
+      <c r="B761"/>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" s="5"/>
+      <c r="B762"/>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" s="5"/>
+      <c r="B763"/>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" s="5"/>
+      <c r="B764"/>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" s="5"/>
+      <c r="B765"/>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" s="5"/>
+      <c r="B766"/>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" s="5"/>
+      <c r="B767"/>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" s="5"/>
+      <c r="B768"/>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" s="5"/>
+      <c r="B769"/>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" s="5"/>
+      <c r="B770"/>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" s="5"/>
+      <c r="B771"/>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" s="5"/>
+      <c r="B772"/>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" s="5"/>
+      <c r="B773"/>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" s="5"/>
+      <c r="B774"/>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" s="5"/>
+      <c r="B775"/>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" s="5"/>
+      <c r="B776"/>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" s="5"/>
+      <c r="B777"/>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" s="5"/>
+      <c r="B778"/>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" s="5"/>
+      <c r="B779"/>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" s="5"/>
+      <c r="B780"/>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" s="5"/>
+      <c r="B781"/>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" s="5"/>
+      <c r="B782"/>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" s="5"/>
+      <c r="B783"/>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" s="5"/>
+      <c r="B784"/>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785" s="5"/>
+      <c r="B785"/>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786" s="5"/>
+      <c r="B786"/>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787" s="5"/>
+      <c r="B787"/>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788" s="5"/>
+      <c r="B788"/>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789" s="5"/>
+      <c r="B789"/>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790" s="5"/>
+      <c r="B790"/>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791" s="5"/>
+      <c r="B791"/>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792" s="5"/>
+      <c r="B792"/>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793" s="5"/>
+      <c r="B793"/>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794" s="5"/>
+      <c r="B794"/>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795" s="5"/>
+      <c r="B795"/>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796" s="5"/>
+      <c r="B796"/>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797" s="5"/>
+      <c r="B797"/>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798" s="5"/>
+      <c r="B798"/>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799" s="5"/>
+      <c r="B799"/>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800" s="5"/>
+      <c r="B800"/>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801" s="5"/>
+      <c r="B801"/>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802" s="5"/>
+      <c r="B802"/>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803" s="5"/>
+      <c r="B803"/>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804" s="5"/>
+      <c r="B804"/>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805" s="5"/>
+      <c r="B805"/>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806" s="5"/>
+      <c r="B806"/>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807" s="5"/>
+      <c r="B807"/>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808" s="5"/>
+      <c r="B808"/>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809" s="5"/>
+      <c r="B809"/>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810" s="5"/>
+      <c r="B810"/>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811" s="5"/>
+      <c r="B811"/>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812" s="5"/>
+      <c r="B812"/>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813" s="5"/>
+      <c r="B813"/>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814" s="5"/>
+      <c r="B814"/>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815" s="5"/>
+      <c r="B815"/>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816" s="5"/>
+      <c r="B816"/>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" s="5"/>
+      <c r="B817"/>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" s="5"/>
+      <c r="B818"/>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" s="5"/>
+      <c r="B819"/>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" s="5"/>
+      <c r="B820"/>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" s="5"/>
+      <c r="B821"/>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" s="5"/>
+      <c r="B822"/>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" s="5"/>
+      <c r="B823"/>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" s="5"/>
+      <c r="B824"/>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" s="5"/>
+      <c r="B825"/>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" s="5"/>
+      <c r="B826"/>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" s="5"/>
+      <c r="B827"/>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" s="5"/>
+      <c r="B828"/>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" s="5"/>
+      <c r="B829"/>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" s="5"/>
+      <c r="B830"/>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" s="5"/>
+      <c r="B831"/>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" s="5"/>
+      <c r="B832"/>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" s="5"/>
+      <c r="B833"/>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" s="5"/>
+      <c r="B834"/>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" s="5"/>
+      <c r="B835"/>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" s="5"/>
+      <c r="B836"/>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" s="5"/>
+      <c r="B837"/>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" s="5"/>
+      <c r="B838"/>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" s="5"/>
+      <c r="B839"/>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" s="5"/>
+      <c r="B840"/>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" s="5"/>
+      <c r="B841"/>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" s="5"/>
+      <c r="B842"/>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" s="5"/>
+      <c r="B843"/>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" s="5"/>
+      <c r="B844"/>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" s="5"/>
+      <c r="B845"/>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" s="5"/>
+      <c r="B846"/>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" s="5"/>
+      <c r="B847"/>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" s="5"/>
+      <c r="B848"/>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" s="5"/>
+      <c r="B849"/>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" s="5"/>
+      <c r="B850"/>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" s="5"/>
+      <c r="B851"/>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" s="5"/>
+      <c r="B852"/>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" s="5"/>
+      <c r="B853"/>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" s="5"/>
+      <c r="B854"/>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" s="5"/>
+      <c r="B855"/>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" s="5"/>
+      <c r="B856"/>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" s="5"/>
+      <c r="B857"/>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" s="5"/>
+      <c r="B858"/>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" s="5"/>
+      <c r="B859"/>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" s="5"/>
+      <c r="B860"/>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" s="5"/>
+      <c r="B861"/>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" s="5"/>
+      <c r="B862"/>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" s="5"/>
+      <c r="B863"/>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" s="5"/>
+      <c r="B864"/>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" s="5"/>
+      <c r="B865"/>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" s="5"/>
+      <c r="B866"/>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" s="5"/>
+      <c r="B867"/>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" s="5"/>
+      <c r="B868"/>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" s="5"/>
+      <c r="B869"/>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" s="5"/>
+      <c r="B870"/>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" s="5"/>
+      <c r="B871"/>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" s="5"/>
+      <c r="B872"/>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" s="5"/>
+      <c r="B873"/>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" s="5"/>
+      <c r="B874"/>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" s="5"/>
+      <c r="B875"/>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" s="5"/>
+      <c r="B876"/>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" s="5"/>
+      <c r="B877"/>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" s="5"/>
+      <c r="B878"/>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" s="5"/>
+      <c r="B879"/>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" s="5"/>
+      <c r="B880"/>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" s="5"/>
+      <c r="B881"/>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882" s="5"/>
+      <c r="B882"/>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883" s="5"/>
+      <c r="B883"/>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884" s="5"/>
+      <c r="B884"/>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885" s="5"/>
+      <c r="B885"/>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886" s="5"/>
+      <c r="B886"/>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887" s="5"/>
+      <c r="B887"/>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888" s="5"/>
+      <c r="B888"/>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889" s="5"/>
+      <c r="B889"/>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890" s="5"/>
+      <c r="B890"/>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891" s="5"/>
+      <c r="B891"/>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892" s="5"/>
+      <c r="B892"/>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893" s="5"/>
+      <c r="B893"/>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894" s="5"/>
+      <c r="B894"/>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895" s="5"/>
+      <c r="B895"/>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896" s="5"/>
+      <c r="B896"/>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897" s="5"/>
+      <c r="B897"/>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898" s="5"/>
+      <c r="B898"/>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899" s="5"/>
+      <c r="B899"/>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900" s="5"/>
+      <c r="B900"/>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901" s="5"/>
+      <c r="B901"/>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902" s="5"/>
+      <c r="B902"/>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903" s="5"/>
+      <c r="B903"/>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904" s="5"/>
+      <c r="B904"/>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905" s="5"/>
+      <c r="B905"/>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906" s="5"/>
+      <c r="B906"/>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907" s="5"/>
+      <c r="B907"/>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908" s="5"/>
+      <c r="B908"/>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909" s="5"/>
+      <c r="B909"/>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910" s="5"/>
+      <c r="B910"/>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911" s="5"/>
+      <c r="B911"/>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912" s="5"/>
+      <c r="B912"/>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913" s="5"/>
+      <c r="B913"/>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914" s="5"/>
+      <c r="B914"/>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915" s="5"/>
+      <c r="B915"/>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916" s="5"/>
+      <c r="B916"/>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917" s="5"/>
+      <c r="B917"/>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918" s="5"/>
+      <c r="B918"/>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919" s="5"/>
+      <c r="B919"/>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920" s="5"/>
+      <c r="B920"/>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921" s="5"/>
+      <c r="B921"/>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922" s="5"/>
+      <c r="B922"/>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923" s="5"/>
+      <c r="B923"/>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924" s="5"/>
+      <c r="B924"/>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925" s="5"/>
+      <c r="B925"/>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926" s="5"/>
+      <c r="B926"/>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927" s="5"/>
+      <c r="B927"/>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928" s="5"/>
+      <c r="B928"/>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929" s="5"/>
+      <c r="B929"/>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930" s="5"/>
+      <c r="B930"/>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931" s="5"/>
+      <c r="B931"/>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932" s="5"/>
+      <c r="B932"/>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933" s="5"/>
+      <c r="B933"/>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934" s="5"/>
+      <c r="B934"/>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935" s="5"/>
+      <c r="B935"/>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936" s="5"/>
+      <c r="B936"/>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937" s="5"/>
+      <c r="B937"/>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938" s="5"/>
+      <c r="B938"/>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939" s="5"/>
+      <c r="B939"/>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940" s="5"/>
+      <c r="B940"/>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941" s="5"/>
+      <c r="B941"/>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942" s="5"/>
+      <c r="B942"/>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943" s="5"/>
+      <c r="B943"/>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944" s="5"/>
+      <c r="B944"/>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945" s="5"/>
+      <c r="B945"/>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946" s="5"/>
+      <c r="B946"/>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947" s="5"/>
+      <c r="B947"/>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948" s="5"/>
+      <c r="B948"/>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949" s="5"/>
+      <c r="B949"/>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950" s="5"/>
+      <c r="B950"/>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951" s="5"/>
+      <c r="B951"/>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952" s="5"/>
+      <c r="B952"/>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953" s="5"/>
+      <c r="B953"/>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954" s="5"/>
+      <c r="B954"/>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955" s="5"/>
+      <c r="B955"/>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956" s="5"/>
+      <c r="B956"/>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957" s="5"/>
+      <c r="B957"/>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958" s="5"/>
+      <c r="B958"/>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959" s="5"/>
+      <c r="B959"/>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960" s="5"/>
+      <c r="B960"/>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961" s="5"/>
+      <c r="B961"/>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962" s="5"/>
+      <c r="B962"/>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963" s="5"/>
+      <c r="B963"/>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964" s="5"/>
+      <c r="B964"/>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965" s="5"/>
+      <c r="B965"/>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966" s="5"/>
+      <c r="B966"/>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967" s="5"/>
+      <c r="B967"/>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968" s="5"/>
+      <c r="B968"/>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969" s="5"/>
+      <c r="B969"/>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970" s="5"/>
+      <c r="B970"/>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971" s="5"/>
+      <c r="B971"/>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972" s="5"/>
+      <c r="B972"/>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973" s="5"/>
+      <c r="B973"/>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974" s="5"/>
+      <c r="B974"/>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975" s="5"/>
+      <c r="B975"/>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976" s="5"/>
+      <c r="B976"/>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977" s="5"/>
+      <c r="B977"/>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978" s="5"/>
+      <c r="B978"/>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979" s="5"/>
+      <c r="B979"/>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980" s="5"/>
+      <c r="B980"/>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981" s="5"/>
+      <c r="B981"/>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982" s="5"/>
+      <c r="B982"/>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983" s="5"/>
+      <c r="B983"/>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984" s="5"/>
+      <c r="B984"/>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985" s="5"/>
+      <c r="B985"/>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986" s="5"/>
+      <c r="B986"/>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987" s="5"/>
+      <c r="B987"/>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988" s="5"/>
+      <c r="B988"/>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989" s="5"/>
+      <c r="B989"/>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990" s="5"/>
+      <c r="B990"/>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991" s="5"/>
+      <c r="B991"/>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992" s="5"/>
+      <c r="B992"/>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993" s="5"/>
+      <c r="B993"/>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994" s="5"/>
+      <c r="B994"/>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995" s="5"/>
+      <c r="B995"/>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996" s="5"/>
+      <c r="B996"/>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997" s="5"/>
+      <c r="B997"/>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998" s="5"/>
+      <c r="B998"/>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999" s="5"/>
+      <c r="B999"/>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000" s="5"/>
+      <c r="B1000"/>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001" s="5"/>
+      <c r="B1001"/>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002" s="5"/>
+      <c r="B1002"/>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1003" s="5"/>
+      <c r="B1003"/>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1004" s="5"/>
+      <c r="B1004"/>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1005" s="5"/>
+      <c r="B1005"/>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1006" s="5"/>
+      <c r="B1006"/>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1007" s="5"/>
+      <c r="B1007"/>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1008" s="5"/>
+      <c r="B1008"/>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1009" s="5"/>
+      <c r="B1009"/>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1010" s="5"/>
+      <c r="B1010"/>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1011" s="5"/>
+      <c r="B1011"/>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1012" s="5"/>
+      <c r="B1012"/>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1013" s="5"/>
+      <c r="B1013"/>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1014" s="5"/>
+      <c r="B1014"/>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015" s="5"/>
+      <c r="B1015"/>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1016" s="5"/>
+      <c r="B1016"/>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1017" s="5"/>
+      <c r="B1017"/>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1018" s="5"/>
+      <c r="B1018"/>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1019" s="5"/>
+      <c r="B1019"/>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1020" s="5"/>
+      <c r="B1020"/>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1021" s="5"/>
+      <c r="B1021"/>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1022" s="5"/>
+      <c r="B1022"/>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1023" s="5"/>
+      <c r="B1023"/>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1024" s="5"/>
+      <c r="B1024"/>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1025" s="5"/>
+      <c r="B1025"/>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1026" s="5"/>
+      <c r="B1026"/>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1027" s="5"/>
+      <c r="B1027"/>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1028" s="5"/>
+      <c r="B1028"/>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1029" s="5"/>
+      <c r="B1029"/>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1030" s="5"/>
+      <c r="B1030"/>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1031" s="5"/>
+      <c r="B1031"/>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032" s="5"/>
+      <c r="B1032"/>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1033" s="5"/>
+      <c r="B1033"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC641246-7504-450B-98FB-3C912F6AE96C}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -622,7 +2417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14F9587-CBF7-44D4-8C26-4EE85918C5AA}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D25"/>
